--- a/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
+++ b/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Serna\Documents\GitHub\ProyectoNutricion\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="15" windowWidth="15600" windowHeight="7620" tabRatio="869"/>
+    <workbookView xWindow="-165" yWindow="15" windowWidth="15600" windowHeight="7620" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="30" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -169,9 +174,6 @@
     <t>Retrasar la entrega del proyecto.</t>
   </si>
   <si>
-    <t>Antes de avanzar a otra fase del proyecto verificar qué programas se necesitan o se necesitrán para trabajar.</t>
-  </si>
-  <si>
     <t>Conseguir los softwares lo antes posible.</t>
   </si>
   <si>
@@ -251,6 +253,9 @@
   </si>
   <si>
     <t>LBPG</t>
+  </si>
+  <si>
+    <t>Antes de avanzar a otra fase del proyecto el responsable de soporte verificar qué programas se necesitan o se necesitrán para trabajar.</t>
   </si>
 </sst>
 </file>
@@ -936,6 +941,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1292,7 +1300,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>2</v>
@@ -1500,10 +1508,10 @@
         <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>14</v>
@@ -1545,7 +1553,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1585,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -1613,13 +1621,13 @@
         <v>2</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="K9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -1631,10 +1639,10 @@
         <v>42015</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>7</v>
@@ -1647,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
@@ -1665,10 +1673,10 @@
         <v>42015</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>6</v>
@@ -1681,13 +1689,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -1699,10 +1707,10 @@
         <v>42015</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>6</v>
@@ -1715,13 +1723,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -1733,10 +1741,10 @@
         <v>42015</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>7</v>
@@ -1749,13 +1757,13 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
@@ -1767,10 +1775,10 @@
         <v>42015</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>5</v>
@@ -1783,13 +1791,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">

--- a/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
+++ b/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Serna\Documents\GitHub\ProyectoNutricion\Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="15" windowWidth="15600" windowHeight="7620" tabRatio="548"/>
+    <workbookView xWindow="-165" yWindow="15" windowWidth="15600" windowHeight="7620" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="Riesgos" sheetId="30" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Aceptado</t>
   </si>
@@ -123,12 +118,6 @@
     <t>Describa las actividades dirigidas a evitar que el riesgo se dispare. Incluya claramente cómos y cuándos.</t>
   </si>
   <si>
-    <t>Confirmar la asistencia del cliente a la junta un día antes de la fecha planeada para ésta.</t>
-  </si>
-  <si>
-    <t>Programar otra junta lo antes posible.</t>
-  </si>
-  <si>
     <t>Problemas en relación al desarrollo de la aplicación web.</t>
   </si>
   <si>
@@ -162,33 +151,6 @@
     <t>Actualizar el prototipo de tal forma que sea aprobado por el cliente</t>
   </si>
   <si>
-    <t>Que el cliente falte a la junta de revisión de prototipos programada para el jueves 15 de enero.</t>
-  </si>
-  <si>
-    <t>Retraso en el plan de trabajo del proyecto.</t>
-  </si>
-  <si>
-    <t>No tener el software requerido para trabajar en alguna de las fases de desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Retrasar la entrega del proyecto.</t>
-  </si>
-  <si>
-    <t>Conseguir los softwares lo antes posible.</t>
-  </si>
-  <si>
-    <t>Una o varias personas del equipop de desarrollo no pueden presentarse a la junta del día juves 15 de enero.</t>
-  </si>
-  <si>
-    <t>Se pueden perder datos o indicacaciones del cliente.</t>
-  </si>
-  <si>
-    <t>Asignar responsables para que el equipo no resienta las faltas.</t>
-  </si>
-  <si>
-    <t>Prestar atención y escribir todo lo que la clienta nos indique.</t>
-  </si>
-  <si>
     <t>Agentes externos al equipo de desarrollo (paros estudiantiles, por ejemplo) frenen el desarrollo del proyecto.</t>
   </si>
   <si>
@@ -201,30 +163,6 @@
     <t>Continuar con el proyecto a pesar de la situación ocurrida.</t>
   </si>
   <si>
-    <t>Por cuestiones escolares no se podrá cumplir con las tres horas extra escolares asiganadas para el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retrasar el proyecto. </t>
-  </si>
-  <si>
-    <t>Organizarse tomando en cuenta como obligación las tres horas extra escolares de trabajo.</t>
-  </si>
-  <si>
-    <t>Recuperar las horas perdidas.</t>
-  </si>
-  <si>
-    <t>Por alguna razón alguno de los miembros del equipo no puede asistir a las juntas de estatus.</t>
-  </si>
-  <si>
-    <t>Perder el hilo de los avances y quizá reatrasarse en alguna tarea asignada.</t>
-  </si>
-  <si>
-    <t>Si alguien va a faltar tiene que avisarle a los demás integrantes del equipo.</t>
-  </si>
-  <si>
-    <t>Enviarle las minutas de la reunión al integrante que faltó a la junta.</t>
-  </si>
-  <si>
     <t>Debido a la situación por la que pasó el IPN (ajena al equipo de desarrollo) el cliente decide no continuar con el mismo.</t>
   </si>
   <si>
@@ -255,7 +193,28 @@
     <t>LBPG</t>
   </si>
   <si>
-    <t>Antes de avanzar a otra fase del proyecto el responsable de soporte verificar qué programas se necesitan o se necesitrán para trabajar.</t>
+    <t xml:space="preserve">No poder instalar microsoft project </t>
+  </si>
+  <si>
+    <t>Entorpece el seguimiento del plan</t>
+  </si>
+  <si>
+    <t>Tratar de instalarlo en todas las máquinas del equipo</t>
+  </si>
+  <si>
+    <t>Buscar alternativas al microsoft project</t>
+  </si>
+  <si>
+    <t>Indecisión del cliente respecto a los requerimientos</t>
+  </si>
+  <si>
+    <t>Retraso del proyecto.</t>
+  </si>
+  <si>
+    <t>Informar las consecuencias de estar cambiando los requerimientos del proyecto.</t>
+  </si>
+  <si>
+    <t>Trabajar más de lo planeado.</t>
   </si>
 </sst>
 </file>
@@ -337,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -590,21 +549,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -703,7 +647,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -729,10 +673,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -774,7 +715,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -807,16 +748,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,7 +767,43 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -941,9 +918,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1297,92 +1271,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="50.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="60.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="13"/>
-    <col min="13" max="13" width="9.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="12"/>
+    <col min="9" max="10" width="60.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="12"/>
+    <col min="13" max="13" width="9.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -1399,26 +1373,28 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="8" t="s">
@@ -1437,35 +1413,35 @@
     <row r="5" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <f>B4+1</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
         <v>42014</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f>IF(F5="Alta",3,IF(F5="Media", 2, IF(F5="Baja",1, 0)))*IF(G5="Alta",3,IF(G5="Media", 2, IF(G5="Baja",1, 0)))</f>
         <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>2</v>
@@ -1482,36 +1458,36 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
-        <f t="shared" ref="B6:B24" si="0">B5+1</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="21">
+        <f t="shared" ref="B6:B20" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="20">
         <v>42014</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f>IF(F6="Alta",3,IF(F6="Media", 2, IF(F6="Baja",1, 0)))*IF(G6="Alta",3,IF(G6="Media", 2, IF(G6="Baja",1, 0)))</f>
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>14</v>
@@ -1524,36 +1500,36 @@
     </row>
     <row r="7" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="21">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="20">
         <v>42015</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="16">
+        <f>IF(F7="Alta",3,IF(F7="Media", 2, IF(F7="Baja",1, 0)))*IF(G7="Alta",3,IF(G7="Media", 2, IF(G7="Baja",1, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="17">
-        <f>IF(F7="Alta",3,IF(F7="Media", 2, IF(F7="Baja",1, 0)))*IF(G7="Alta",3,IF(G7="Media", 2, IF(G7="Baja",1, 0)))</f>
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1562,257 +1538,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="15" t="s">
+        <f>B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="31">
+        <v>42054</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f>IF(F8="Alta",3,IF(F8="Media", 2, IF(F8="Baja",1, 0)))*IF(G8="Alta",3,IF(G8="Media", 2, IF(G8="Baja",1, 0)))</f>
         <v>4</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>76</v>
+      <c r="I8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
-        <f t="shared" si="0"/>
+        <f>B8+1</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="20">
+        <v>42015</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" ref="H9:H20" si="1">IF(F9="Alta",3,IF(F9="Media", 2, IF(F9="Baja",1, 0)))*IF(G9="Alta",3,IF(G9="Media", 2, IF(G9="Baja",1, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <f>B9+1</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="20">
+        <v>42015</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32">
-        <v>42015</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="17">
-        <f>IF(F9="Alta",3,IF(F9="Media", 2, IF(F9="Baja",1, 0)))*IF(G9="Alta",3,IF(G9="Media", 2, IF(G9="Baja",1, 0)))</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" ref="H10:H24" si="1">IF(F10="Alta",3,IF(F10="Media", 2, IF(F10="Baja",1, 0)))*IF(G10="Alta",3,IF(G10="Media", 2, IF(G10="Baja",1, 0)))</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>76</v>
+      <c r="I10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="21">
-        <v>42015</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="15" t="s">
+    <row r="11" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <f t="shared" ref="B11:B20" si="2">B10+1</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="20">
+        <v>42062</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="I11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="21">
-        <v>42015</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1822,17 +1745,15 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="21">
-        <v>42015</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1842,15 +1763,15 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="21"/>
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1860,15 +1781,15 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="21"/>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17">
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1878,15 +1799,15 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="21"/>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="20"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1894,95 +1815,23 @@
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1990,7 +1839,7 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:H24">
+  <conditionalFormatting sqref="H4:H20">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
       <formula>7</formula>
       <formula>9</formula>
@@ -2015,10 +1864,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H24"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G8 F10:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G7 F9:G20">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H20"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
+++ b/Documentacion/SoftPRESS_PlanDeRiesgos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Aceptado</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>Trabajar más de lo planeado.</t>
+  </si>
+  <si>
+    <t>Retraso con las actividades establecidas por la asistencia al curso de blender.</t>
+  </si>
+  <si>
+    <t>Dedicarle horas extras al proyecto</t>
+  </si>
+  <si>
+    <t>Cumplir con los tiempos establecidos</t>
   </si>
 </sst>
 </file>
@@ -767,43 +776,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1273,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1431,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
-        <f t="shared" ref="B6:B20" si="0">B5+1</f>
+        <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="20">
@@ -1674,20 +1647,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="20">
+        <v>42076</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
